--- a/project/storage details.xlsx
+++ b/project/storage details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>UUID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Serial Number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Device Type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Partitions</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Sector Size</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Total Sectors</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Size (Gigabytes)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Free space(GB)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Filesystem type</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UUID</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature(Celsius)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -508,44 +513,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2e8e5999-a3af-561f-a472-3085e5a39394</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>disk</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>/dev/nvme0n1p1,/dev/nvme0n1p2</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>512</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1000215216</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>476.94</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>29</v>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2e8e5999-a3af-561f-a472-3085e5a39394</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:02</t>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>31</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:01</t>
         </is>
       </c>
     </row>
@@ -562,44 +572,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>33d617c5-28f8-5f3e-8602-53e73c54f647</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>partition</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>512</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>2201600</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1.05</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>vfat</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>29</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>33d617c5-28f8-5f3e-8602-53e73c54f647</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:03</t>
+      <c r="L3" t="n">
+        <v>31</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:02</t>
         </is>
       </c>
     </row>
@@ -616,44 +629,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>89ff3b4c-0311-5665-b529-4eae43245bb8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>partition</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>512</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>998010880</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>475.89</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>424</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>ext4</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>29</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>89ff3b4c-0311-5665-b529-4eae43245bb8</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:04</t>
+      <c r="L4" t="n">
+        <v>31</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:03</t>
         </is>
       </c>
     </row>
@@ -670,44 +686,49 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2e8e5999-a3af-561f-a472-3085e5a39394</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>disk</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>/dev/nvme0n1p1,/dev/nvme0n1p2</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>512</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1000215216</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>476.94</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>29</v>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2e8e5999-a3af-561f-a472-3085e5a39394</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:05</t>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>31</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:04</t>
         </is>
       </c>
     </row>
@@ -724,44 +745,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>33d617c5-28f8-5f3e-8602-53e73c54f647</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>partition</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>512</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>2201600</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>1.05</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>vfat</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>29</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>33d617c5-28f8-5f3e-8602-53e73c54f647</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:06</t>
+      <c r="L6" t="n">
+        <v>32</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:06</t>
         </is>
       </c>
     </row>
@@ -778,44 +802,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>89ff3b4c-0311-5665-b529-4eae43245bb8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>partition</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>512</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>998010880</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>475.89</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="n">
+        <v>424</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>ext4</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>30</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>89ff3b4c-0311-5665-b529-4eae43245bb8</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:07</t>
+      <c r="L7" t="n">
+        <v>32</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:07</t>
         </is>
       </c>
     </row>
@@ -832,44 +859,49 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2e8e5999-a3af-561f-a472-3085e5a39394</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>disk</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>/dev/nvme0n1p1,/dev/nvme0n1p2</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>512</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1000215216</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>476.94</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>30</v>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2e8e5999-a3af-561f-a472-3085e5a39394</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:08</t>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>32</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:08</t>
         </is>
       </c>
     </row>
@@ -886,44 +918,47 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>33d617c5-28f8-5f3e-8602-53e73c54f647</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>partition</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>512</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2201600</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>1.05</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>vfat</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>30</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>33d617c5-28f8-5f3e-8602-53e73c54f647</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:09</t>
+      <c r="L9" t="n">
+        <v>32</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:09</t>
         </is>
       </c>
     </row>
@@ -940,44 +975,47 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>89ff3b4c-0311-5665-b529-4eae43245bb8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>S67MNF0T800108</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>partition</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>512</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>998010880</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>475.89</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="n">
+        <v>424</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>ext4</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>30</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>89ff3b4c-0311-5665-b529-4eae43245bb8</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2025-03-03 13:41:10</t>
+      <c r="L10" t="n">
+        <v>32</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:22:10</t>
         </is>
       </c>
     </row>

--- a/project/storage details.xlsx
+++ b/project/storage details.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:01</t>
+          <t>2025-03-05 16:31:04</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:02</t>
+          <t>2025-03-05 16:31:05</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:03</t>
+          <t>2025-03-05 16:31:06</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:04</t>
+          <t>2025-03-05 16:31:07</t>
         </is>
       </c>
     </row>
@@ -781,11 +781,11 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:06</t>
+          <t>2025-03-05 16:31:08</t>
         </is>
       </c>
     </row>
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:07</t>
+          <t>2025-03-05 16:31:09</t>
         </is>
       </c>
     </row>
@@ -897,11 +897,11 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:08</t>
+          <t>2025-03-05 16:31:11</t>
         </is>
       </c>
     </row>
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:09</t>
+          <t>2025-03-05 16:31:12</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-03-05 16:22:10</t>
+          <t>2025-03-05 16:31:13</t>
         </is>
       </c>
     </row>
